--- a/files/bdProprietários.xlsx
+++ b/files/bdProprietários.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -358,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC276"/>
+  <dimension ref="A1:AC287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28316,6 +28383,1212 @@
         </is>
       </c>
     </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>504706627</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Dania Schmitz Vaughan</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>029.604.019-30</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>89503-390</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>daniaschmitz@gmail.com</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>+44 7906 168071</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>5076-8</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>Dania Maria Schmitz Vaughan</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>02960401930</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vera Lúcia de Mello Schmitz
+Ademar Schmitz
+James William Schmitz Vaughan </t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
+      <c r="S277" t="inlineStr"/>
+      <c r="T277" t="inlineStr"/>
+      <c r="U277" t="inlineStr"/>
+      <c r="V277" t="inlineStr"/>
+      <c r="W277" t="inlineStr"/>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>Rua Inglaterra</t>
+        </is>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="Z277" t="inlineStr"/>
+      <c r="AA277" t="inlineStr"/>
+      <c r="AB277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cacador </t>
+        </is>
+      </c>
+      <c r="AC277" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>508583061</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Lady Mara Lima de Brito</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>748.691.592-87</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>88047-622</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>lady.brito36@gmail.com</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>+55 49 99818-5209</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>5450</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>37930-1</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>Lady Mara Lima de Brito</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>74869159287</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+      <c r="T278" t="inlineStr"/>
+      <c r="U278" t="inlineStr"/>
+      <c r="V278" t="inlineStr"/>
+      <c r="W278" t="inlineStr"/>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>Rua Raimundo Starosky</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="Z278" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="AA278" t="inlineStr"/>
+      <c r="AB278" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="AC278" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>509484976</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Luiza Martins de Lima Delpretto</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>320.935.638-60</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>88064-076</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>luizadelpretto@gmail.com</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>+55 48 99618-5656</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>3616</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>106271-9</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Luiza Martins de Lima Delpretto</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>32093563860</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
+      <c r="S279" t="inlineStr"/>
+      <c r="T279" t="inlineStr"/>
+      <c r="U279" t="inlineStr"/>
+      <c r="V279" t="inlineStr"/>
+      <c r="W279" t="inlineStr"/>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>Rua Jabuticabeira do sul</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>343 casa 1</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florianópolis </t>
+        </is>
+      </c>
+      <c r="AA279" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florianópolis </t>
+        </is>
+      </c>
+      <c r="AC279" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>509489526</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flora Troina Maraslis </t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>058.351.549-50</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>11050-020</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>floratmaraslis@gmail.com</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>+55 48 99932-1901</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>64499-4</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flora Troina Maraslis </t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>05835154950</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr">
+        <is>
+          <t>David Soster Bortolotto
+CPF: 05520859957
+Cel.: (48) 996936061</t>
+        </is>
+      </c>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
+      <c r="S280" t="inlineStr"/>
+      <c r="T280" t="inlineStr"/>
+      <c r="U280" t="inlineStr"/>
+      <c r="V280" t="inlineStr"/>
+      <c r="W280" t="inlineStr"/>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>Rua Paraguassu</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santos </t>
+        </is>
+      </c>
+      <c r="AA280" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB280" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="AC280" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>509570424</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Marcia Solange Mokwa da Silveira</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>359.380.059-49</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>88090-100</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>masomosi@gmail.com</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>+55 48 99163-0650</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>0001</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>62782452-1</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>Marcia Solange Mokwa da Silveira</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>35938005949</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Aurélio L. Mokwa da Silveira - 05692513978- 991265491
+André L. Mokwa da Silveira - 04159514960 - 991692006</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
+      <c r="S281" t="inlineStr"/>
+      <c r="T281" t="inlineStr"/>
+      <c r="U281" t="inlineStr"/>
+      <c r="V281" t="inlineStr"/>
+      <c r="W281" t="inlineStr"/>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Av. Ver. Nagib Jabor, </t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr"/>
+      <c r="AA281" t="inlineStr"/>
+      <c r="AB281" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="AC281" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>510403191</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Patrick Garcia de Lima</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>044.030.899-25</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>89300-018</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>patrick_lima2@hotmail.com</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>+55 41 99757-4333</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>0797</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>25025-2</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>Patrick Garcia de Lima</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>04403089925</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr"/>
+      <c r="S282" t="inlineStr"/>
+      <c r="T282" t="inlineStr"/>
+      <c r="U282" t="inlineStr"/>
+      <c r="V282" t="inlineStr"/>
+      <c r="W282" t="inlineStr"/>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>Rua Vereador Evaldo Steidel</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>175 Casa B</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mafra </t>
+        </is>
+      </c>
+      <c r="AA282" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mafra </t>
+        </is>
+      </c>
+      <c r="AC282" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>510872544</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glecira Pires Ferretti </t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>465.225.060-68</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>88420-000</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>glecira@viveiromudar.com.br</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>+55 47 98812-7239</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>0115</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>29838-7</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glecira Pires Ferretti </t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">46522506068 </t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>Gilberto Ferretti</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>085</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
+      <c r="S283" t="inlineStr"/>
+      <c r="T283" t="inlineStr"/>
+      <c r="U283" t="inlineStr"/>
+      <c r="V283" t="inlineStr"/>
+      <c r="W283" t="inlineStr"/>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>Wilhelm Doering</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr">
+        <is>
+          <t>Agrolândia</t>
+        </is>
+      </c>
+      <c r="AA283" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB283" t="inlineStr">
+        <is>
+          <t>Agrolândia</t>
+        </is>
+      </c>
+      <c r="AC283" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>510881015</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Soster Bortolotto </t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>055.208.599-57</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>11050-020</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>david.bortolotto@gmail.com</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>+55 48 99693-6061</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>4772</t>
+        </is>
+      </c>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>25436-3</t>
+        </is>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>David Soster Bortolotto</t>
+        </is>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>05520859957</t>
+        </is>
+      </c>
+      <c r="M284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flora Troina Maraslis
+058.351.549-50
+(48)99932-1901
+Anastas Pantel Maraslis Júnior
+308.717.196-49
+(48)99952-4913
+</t>
+        </is>
+      </c>
+      <c r="N284" t="inlineStr"/>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr"/>
+      <c r="S284" t="inlineStr"/>
+      <c r="T284" t="inlineStr"/>
+      <c r="U284" t="inlineStr"/>
+      <c r="V284" t="inlineStr"/>
+      <c r="W284" t="inlineStr"/>
+      <c r="X284" t="inlineStr">
+        <is>
+          <t>Rua Paraguassu</t>
+        </is>
+      </c>
+      <c r="Y284" t="inlineStr">
+        <is>
+          <t>53-121</t>
+        </is>
+      </c>
+      <c r="Z284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santos </t>
+        </is>
+      </c>
+      <c r="AA284" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB284" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="AC284" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>510887687</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Theo SThiago Boabaid</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>006.046.629-47</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>88025-500</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>theoboabaid@hotmail.com</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>+55 48 99983-5539</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>0016</t>
+        </is>
+      </c>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>27348-1</t>
+        </is>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>Theo SThiago Boabaid</t>
+        </is>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>00604662947</t>
+        </is>
+      </c>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="inlineStr"/>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
+      <c r="S285" t="inlineStr"/>
+      <c r="T285" t="inlineStr"/>
+      <c r="U285" t="inlineStr"/>
+      <c r="V285" t="inlineStr"/>
+      <c r="W285" t="inlineStr"/>
+      <c r="X285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delminda Silveira </t>
+        </is>
+      </c>
+      <c r="Y285" t="inlineStr">
+        <is>
+          <t>535</t>
+        </is>
+      </c>
+      <c r="Z285" t="inlineStr"/>
+      <c r="AA285" t="inlineStr"/>
+      <c r="AB285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Florianopolis </t>
+        </is>
+      </c>
+      <c r="AC285" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>511494112</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Neusa Maria Broering</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>200.404.749-68</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>88040-405</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>nmb2431@yahoo.com.br</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>+55 48 99854-3131</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>8641</t>
+        </is>
+      </c>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>8112-4</t>
+        </is>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>Neusa Maria Broering</t>
+        </is>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>20040474968</t>
+        </is>
+      </c>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr"/>
+      <c r="S286" t="inlineStr"/>
+      <c r="T286" t="inlineStr"/>
+      <c r="U286" t="inlineStr"/>
+      <c r="V286" t="inlineStr"/>
+      <c r="W286" t="inlineStr"/>
+      <c r="X286" t="inlineStr">
+        <is>
+          <t>Serv. Cristiano Vanderley Faria</t>
+        </is>
+      </c>
+      <c r="Y286" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="Z286" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="AA286" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="AB286" t="inlineStr">
+        <is>
+          <t>Florianópolis</t>
+        </is>
+      </c>
+      <c r="AC286" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>513092762</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Demétrio Martinelli Magnoli</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>074.278.138-04</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>05435-050</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>elainise51@gmail.com</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>+55 11 99620-8337</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>28777-9</t>
+        </is>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>Demétrio Martinelli Magnoli</t>
+        </is>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>07427813804</t>
+        </is>
+      </c>
+      <c r="M287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaine Senise Barbosa </t>
+        </is>
+      </c>
+      <c r="N287" t="inlineStr"/>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>Não</t>
+        </is>
+      </c>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
+      <c r="S287" t="inlineStr"/>
+      <c r="T287" t="inlineStr"/>
+      <c r="U287" t="inlineStr"/>
+      <c r="V287" t="inlineStr"/>
+      <c r="W287" t="inlineStr"/>
+      <c r="X287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rua Original </t>
+        </is>
+      </c>
+      <c r="Y287" t="inlineStr">
+        <is>
+          <t>22 ap 81</t>
+        </is>
+      </c>
+      <c r="Z287" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="AA287" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+      <c r="AB287" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="AC287" t="inlineStr">
+        <is>
+          <t>SP</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
